--- a/WISOL.UI/GOC_PLANT_SMT.xlsx
+++ b/WISOL.UI/GOC_PLANT_SMT.xlsx
@@ -728,18 +728,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="5" customWidth="1"/>
@@ -759,7 +759,7 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -798,8 +798,8 @@
       <c r="B2" s="4">
         <v>44562</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
+      <c r="C2" s="4">
+        <v>44621</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -832,10 +832,14 @@
       <c r="L2" s="2">
         <v>2022</v>
       </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
